--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>occupation</t>
   </si>
@@ -58,15 +58,15 @@
     <t>comtroller</t>
   </si>
   <si>
+    <t>doctor</t>
+  </si>
+  <si>
     <t>esq</t>
   </si>
   <si>
     <t>excuetor</t>
   </si>
   <si>
-    <t>factor</t>
-  </si>
-  <si>
     <t>gentleman</t>
   </si>
   <si>
@@ -85,12 +85,6 @@
     <t>merchant</t>
   </si>
   <si>
-    <t>penniston</t>
-  </si>
-  <si>
-    <t>physician</t>
-  </si>
-  <si>
     <t>planter</t>
   </si>
   <si>
@@ -113,6 +107,9 @@
   </si>
   <si>
     <t>tanner</t>
+  </si>
+  <si>
+    <t>trader</t>
   </si>
   <si>
     <t>treasurer</t>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>50.123166</v>
+        <v>7971.000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3120.0602</v>
+        <v>50.123166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -655,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2961.48</v>
+        <v>3120.0602</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -732,7 +729,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>914.24</v>
+        <v>13322.03666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>7971.000000000001</v>
+        <v>132.72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -754,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>13322.03666666667</v>
+        <v>2133.326666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -765,7 +762,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>132.72</v>
+        <v>153.54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -776,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>2133.326666666667</v>
+        <v>190.66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -787,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>153.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -798,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>190.66</v>
+        <v>364.59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -809,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>377.49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -820,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>364.59</v>
+        <v>2961.48</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -831,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>377.49</v>
+        <v>262.14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -842,7 +839,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>262.14</v>
+        <v>2439.02</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -853,17 +850,6 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>2439.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
         <v>4910.7</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>administrator</t>
@@ -476,381 +482,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1704.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>852.385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>345.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>345.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3690.940000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>410.1044444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>123.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>61.59500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1423.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1423.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>5264.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2632.115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>37.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2334.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>212.2627272727273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>74.45999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>74.45999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>449.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>89.804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1425.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>712.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>53.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>53.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>7971.000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>797.1000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>50.123166</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>25.061583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>3120.0602</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>260.0050166666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>474.4299999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>237.215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>17.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2257.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2257.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>364.0047</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>91.00117499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>71438.8469</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>155</v>
+      </c>
+      <c r="E22">
+        <v>460.8957864516129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>13322.03666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>416.3136458333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>132.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>2133.326666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1066.663333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>153.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>153.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>190.66</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>47.665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>364.59</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>364.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>377.49</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>377.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>2961.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>987.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>262.14</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>2439.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2439.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>4910.7</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>350.7642857142857</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsSC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>occupation</t>
   </si>
@@ -25,106 +25,109 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>planter</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>blockmaker</t>
+  </si>
+  <si>
+    <t>widow</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>excuetor</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>trustee</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>judges</t>
+  </si>
+  <si>
+    <t>sheriff</t>
+  </si>
+  <si>
     <t>administrator</t>
   </si>
   <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>blacksmith</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>tanner</t>
+  </si>
+  <si>
+    <t>spinster</t>
+  </si>
+  <si>
+    <t>mariner</t>
+  </si>
+  <si>
     <t>assignee</t>
   </si>
   <si>
-    <t>attorney</t>
+    <t>treasurer</t>
+  </si>
+  <si>
+    <t>shopkeeper</t>
+  </si>
+  <si>
+    <t>shipwright</t>
+  </si>
+  <si>
+    <t>printer</t>
   </si>
   <si>
     <t>auctioneer</t>
   </si>
   <si>
-    <t>blacksmith</t>
-  </si>
-  <si>
-    <t>blockmaker</t>
+    <t>cabinet maker</t>
+  </si>
+  <si>
+    <t>comtroller</t>
+  </si>
+  <si>
+    <t>esq</t>
   </si>
   <si>
     <t>bricklayer</t>
   </si>
   <si>
-    <t>broker</t>
-  </si>
-  <si>
-    <t>cabinet maker</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>comtroller</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>esq</t>
-  </si>
-  <si>
-    <t>excuetor</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
     <t>guardian</t>
   </si>
   <si>
+    <t>south carolina</t>
+  </si>
+  <si>
     <t>hair dresser</t>
-  </si>
-  <si>
-    <t>judges</t>
-  </si>
-  <si>
-    <t>mariner</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>planter</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>sheriff</t>
-  </si>
-  <si>
-    <t>shipwright</t>
-  </si>
-  <si>
-    <t>shopkeeper</t>
-  </si>
-  <si>
-    <t>south carolina</t>
-  </si>
-  <si>
-    <t>spinster</t>
-  </si>
-  <si>
-    <t>tanner</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>treasurer</t>
-  </si>
-  <si>
-    <t>trustee</t>
-  </si>
-  <si>
-    <t>widow</t>
   </si>
 </sst>
 </file>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,268 +504,316 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1704.77</v>
+        <v>71438.8469</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <v>852.385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>53.44827586206896</v>
+      </c>
+      <c r="F2">
+        <v>460.8957864516129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>345.02</v>
+        <v>13322.03666666667</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>345.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11.03448275862069</v>
+      </c>
+      <c r="F3">
+        <v>416.3136458333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3690.940000000001</v>
+        <v>7971.000000000001</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>410.1044444444445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="F4">
+        <v>797.1000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>123.19</v>
+        <v>5264.23</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>61.59500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F5">
+        <v>2632.115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1423.48</v>
+        <v>4910.7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>1423.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>4.827586206896552</v>
+      </c>
+      <c r="F6">
+        <v>350.7642857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3690.940000000001</v>
+      </c>
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>5264.23</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>2632.115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.103448275862069</v>
+      </c>
+      <c r="F7">
+        <v>410.1044444444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>37.35</v>
+        <v>3120.0602</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>37.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.137931034482759</v>
+      </c>
+      <c r="F8">
+        <v>260.0050166666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2334.89</v>
+        <v>2961.48</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>212.2627272727273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="F9">
+        <v>987.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>74.45999999999999</v>
+        <v>2439.02</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>74.45999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F10">
+        <v>2439.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>449.02</v>
+        <v>2334.89</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>89.804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3.793103448275862</v>
+      </c>
+      <c r="F11">
+        <v>212.2627272727273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>1425.82</v>
+        <v>2257.18</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>712.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F12">
+        <v>2257.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>53.74</v>
+        <v>2133.326666666667</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>53.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F13">
+        <v>1066.663333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>7971.000000000001</v>
+        <v>1704.77</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>797.1000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F14">
+        <v>852.385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>50.123166</v>
+        <v>1425.82</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>25.061583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F15">
+        <v>712.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>3120.0602</v>
+        <v>1423.48</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>260.0050166666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F16">
+        <v>1423.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>474.4299999999999</v>
@@ -771,66 +822,78 @@
         <v>2</v>
       </c>
       <c r="E17">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F17">
         <v>237.215</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>17.15</v>
+        <v>449.02</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>17.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1.724137931034483</v>
+      </c>
+      <c r="F18">
+        <v>89.804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>377.49</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F19">
+        <v>377.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>2257.18</v>
+        <v>364.59</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2257.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F20">
+        <v>364.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>364.0047</v>
@@ -839,228 +902,270 @@
         <v>4</v>
       </c>
       <c r="E21">
+        <v>1.379310344827586</v>
+      </c>
+      <c r="F21">
         <v>91.00117499999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>71438.8469</v>
+        <v>345.02</v>
       </c>
       <c r="D22">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>460.8957864516129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F22">
+        <v>345.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>13322.03666666667</v>
+        <v>262.14</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>416.3136458333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F23">
+        <v>131.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>132.72</v>
+        <v>190.66</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>66.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1.379310344827586</v>
+      </c>
+      <c r="F24">
+        <v>47.665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>2133.326666666667</v>
+        <v>153.54</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1066.663333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F25">
+        <v>153.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>153.54</v>
+        <v>132.72</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>153.54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F26">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>190.66</v>
+        <v>123.19</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>47.665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F27">
+        <v>61.59500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F28">
+        <v>74.45999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>364.59</v>
+        <v>53.74</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>364.59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F29">
+        <v>53.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>377.49</v>
+        <v>50.123166</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>377.49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="F30">
+        <v>25.061583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>2961.48</v>
+        <v>37.35</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>987.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F31">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>262.14</v>
+        <v>17.15</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>131.07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F32">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>2439.02</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>2439.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>4910.7</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>350.7642857142857</v>
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
